--- a/ChangeDoc/Change Document Cargill-Geminyo.xlsx
+++ b/ChangeDoc/Change Document Cargill-Geminyo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\surpriya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pramprak\Documents\implem\Change document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="1896" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4210"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;Date&gt;" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>SL No.</t>
   </si>
@@ -45,43 +45,144 @@
   </si>
   <si>
     <t>Date (mm-dd-yy)</t>
+  </si>
+  <si>
+    <t>Geminyo (Cargill)</t>
   </si>
   <si>
     <t>solman : solaris/db2
 target : suse-linux/hana</t>
   </si>
   <si>
-    <t>POST-REFRESH(Cargill)</t>
+    <t>cleanupjobsyb</t>
+  </si>
+  <si>
+    <t>lin01</t>
+  </si>
+  <si>
+    <r>
+      <t>1.ping had to be given with full path
+2. -i not an option of ping not supported</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>1.ping had to be given with full path</t>
+  </si>
+  <si>
+    <t>1.We are finding the full path of ping using the "whereis" command n then executing the ping command
+2. -i option removed in the command</t>
+  </si>
+  <si>
+    <t>1.We are finding the full path of ping using the "whereis" command n then executing the ping command</t>
+  </si>
+  <si>
+    <t>lin03</t>
+  </si>
+  <si>
+    <t>wrp_002</t>
+  </si>
+  <si>
+    <t>1.Quotes mismatched</t>
+  </si>
+  <si>
+    <t>1.quotes changed accordingly</t>
+  </si>
+  <si>
+    <t>1. when checking for OS name, it is mentioned as "suse linux"</t>
+  </si>
+  <si>
+    <t>1. OS name is passed to the scripts as "suse_linux", so in the if condition, os name is being checked against "suse_linux".</t>
+  </si>
+  <si>
+    <t>lin20</t>
+  </si>
+  <si>
+    <t>1."trans" folder of client is shared across their environment. So, when copying the cofiles and data files from solman to target, cofiles are getting corrupted.</t>
+  </si>
+  <si>
+    <t>1.copy part of the script is commented as the "trans" folder is shared and accessible by all systems in the environment.So, the script only imports the TR in the target system.
+This change is client specific.</t>
+  </si>
+  <si>
+    <t>wrp_010</t>
+  </si>
+  <si>
+    <t>1.When calling the script lin23, it is calling the .py script rather than the encrypted script</t>
+  </si>
+  <si>
+    <t>1.The ".py" is removed, so that the wrapper calls the encrypted script rather than the python script.</t>
+  </si>
+  <si>
+    <t>lin23</t>
+  </si>
+  <si>
+    <t>1.When finding the profile file, the ouput contains the backup files as well.</t>
+  </si>
+  <si>
+    <t>1.When finding the profile file, the first index of the output is taken so that only the required file ( and not the backup files) are passed on to the succeeding commands.</t>
+  </si>
+  <si>
+    <t>lin26</t>
+  </si>
+  <si>
+    <t>1.login to the hana db was not happening.
+2.profile file needed to find the instance number for login.
+3.update query is commented.</t>
+  </si>
+  <si>
+    <t>1.The login options had to be changed to include the instance number as well ( hana DB executed for the first time).
+Also, the queries had to be modified a little I.e, the table name had to be specified without the schema name, "use &lt;database name&gt;" was not required, "exit" at the end of the sql file was not required.
+2.The instance number of the hana DB is found from profile file (SID_HDB&lt;nr&gt;_hostname) and the same is used during login to the hana db.
+3. the update query after deleting the table entry for sap* is commented as it was not required.</t>
+  </si>
+  <si>
+    <t>lin28</t>
   </si>
   <si>
     <t>lin32</t>
   </si>
   <si>
-    <t>License install(cargill)</t>
-  </si>
-  <si>
-    <t>lin30</t>
+    <t>1.After db restore the bg param needs to be set at (original val+5)value but it was not working correctly for 2 digit value.</t>
   </si>
   <si>
     <t>1.Before change  the bg param was set to original +5 but while taking the original value only one digit number was giving correct value so now we are splitting it with '=' and taking the value and adding 5 to it.</t>
   </si>
   <si>
-    <t>1.After db restore the bg param needs to be set at (original val+5)value but it was not working correctly for 2 digit value.</t>
-  </si>
-  <si>
-    <t>1.We are finding the instance profile name by  taking the 0th index from the list of files that we are getting from the profile path</t>
-  </si>
-  <si>
-    <t>1.Instance  profile name was not coming correctly</t>
+    <t>1.login to the hana db was not happening.
+2.profile file needed to find the instance number for login.
+3.syntax error in truncate query.</t>
+  </si>
+  <si>
+    <t>1.The login options had to be changed to include the instance number as well ( hana DB executed for the first time).
+Also, the queries had to be modified a little I.e, the table name had to be specified without the schema name, "use &lt;database name&gt;" was not required, "exit" at the end of the sql file was not required.
+2.The instance number of the hana DB is found from profile file (SID_HDB&lt;nr&gt;_hostname) and the same is used during login to the hana db.
+3. added a ";" at the end of the query.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -200,24 +301,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,173 +609,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:K16"/>
+  <dimension ref="E4:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="51.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.08984375" customWidth="1"/>
+    <col min="11" max="11" width="51.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="3" t="s">
+    <row r="4" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="5:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="E6" s="2">
+    <row r="6" spans="5:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="9">
+        <v>43053</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>43055</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="E8" s="7">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>43055</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>43055</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>43059</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="E11" s="7">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11">
+        <v>43059</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12" s="11">
+        <v>43059</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" ht="174" x14ac:dyDescent="0.35">
+      <c r="E13" s="12">
+        <v>8</v>
+      </c>
+      <c r="F13" s="11">
         <v>43063</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E14" s="12">
         <v>9</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="5:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="F14" s="11">
         <v>43063</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="E15" s="12">
         <v>10</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="F15" s="11">
+        <v>43063</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E16" s="12">
         <v>11</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E8" s="1"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="8"/>
+      <c r="F16" s="11">
+        <v>43063</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ChangeDoc/Change Document Cargill-Geminyo.xlsx
+++ b/ChangeDoc/Change Document Cargill-Geminyo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9580"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;Date&gt;" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>SL No.</t>
   </si>
@@ -104,16 +104,6 @@
     <t>1. OS name is passed to the scripts as "suse_linux", so in the if condition, os name is being checked against "suse_linux".</t>
   </si>
   <si>
-    <t>lin20</t>
-  </si>
-  <si>
-    <t>1."trans" folder of client is shared across their environment. So, when copying the cofiles and data files from solman to target, cofiles are getting corrupted.</t>
-  </si>
-  <si>
-    <t>1.copy part of the script is commented as the "trans" folder is shared and accessible by all systems in the environment.So, the script only imports the TR in the target system.
-This change is client specific.</t>
-  </si>
-  <si>
     <t>wrp_010</t>
   </si>
   <si>
@@ -167,6 +157,19 @@
 Also, the queries had to be modified a little I.e, the table name had to be specified without the schema name, "use &lt;database name&gt;" was not required, "exit" at the end of the sql file was not required.
 2.The instance number of the hana DB is found from profile file (SID_HDB&lt;nr&gt;_hostname) and the same is used during login to the hana db.
 3. added a ";" at the end of the query.</t>
+  </si>
+  <si>
+    <t>Applicability</t>
+  </si>
+  <si>
+    <t>Generic/ Enhancement</t>
+  </si>
+  <si>
+    <t>Generic/ Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic/ Enhancement
+</t>
   </si>
 </sst>
 </file>
@@ -285,29 +288,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -329,6 +329,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:K24"/>
+  <dimension ref="E4:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,14 +634,15 @@
     <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.08984375" customWidth="1"/>
     <col min="11" max="11" width="51.90625" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="5:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -646,222 +657,243 @@
       <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="5:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="E6" s="7">
+      <c r="L5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>43053</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="5:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="E7" s="7">
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="5:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>43055</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="8" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="5:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="E8" s="7">
+      <c r="L7" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>43055</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="5:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="E9" s="7">
+      <c r="L8" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>43055</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="5:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="E10" s="7">
+      <c r="L9" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="E10" s="6">
         <v>5</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>43059</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="5:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="E11" s="7">
+      <c r="L10" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E11" s="6">
         <v>6</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>43059</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="5:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="E12" s="7">
+      <c r="L11" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="174" x14ac:dyDescent="0.35">
+      <c r="E12" s="6">
         <v>7</v>
       </c>
-      <c r="F12" s="11">
-        <v>43059</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="s">
+      <c r="F12" s="10">
+        <v>43063</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="10" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="5:11" ht="174" x14ac:dyDescent="0.35">
-      <c r="E13" s="12">
+      <c r="L12" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E13" s="6">
         <v>8</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>43063</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="10" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="E14" s="6">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10">
+        <v>43063</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10">
+        <v>43063</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="5:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="E14" s="12">
-        <v>9</v>
-      </c>
-      <c r="F14" s="11">
-        <v>43063</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12" t="s">
+      <c r="K15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="5:11" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="E15" s="12">
-        <v>10</v>
-      </c>
-      <c r="F15" s="11">
-        <v>43063</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="10" t="s">
+      <c r="L15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="5:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="E16" s="12">
-        <v>11</v>
-      </c>
-      <c r="F16" s="11">
-        <v>43063</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>36</v>
-      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E17" s="1"/>
@@ -870,7 +902,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="6"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
@@ -879,7 +911,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
@@ -888,7 +920,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="6"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E20" s="1"/>
@@ -897,7 +929,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="6"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E21" s="1"/>
@@ -906,7 +938,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="6"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E22" s="1"/>
@@ -915,7 +947,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="6"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E23" s="1"/>
@@ -924,16 +956,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.35">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="6"/>
+      <c r="K23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
